--- a/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
+++ b/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
@@ -1,48 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E111DBF174EE65ADA750EC321F28374B807DA784" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\FLRbI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="22035" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="22035" windowHeight="9270"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SourceData" sheetId="2" r:id="rId2"/>
     <sheet name="FLRbI" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Resources for the Future</t>
+  </si>
+  <si>
+    <t>The Impact on US Industries of Carbon Prices with Output-based Rebates over Multiple Time Frames</t>
+  </si>
+  <si>
+    <t>http://www.rff.org/RFF/Documents/RFF-DP-10-47.pdf</t>
+  </si>
+  <si>
+    <t>Page 83, Table 15</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Food, Beverages, and Tobacco</t>
+  </si>
+  <si>
+    <t>Wearing Apparel and Leather</t>
+  </si>
+  <si>
+    <t>Paper and Publishing</t>
+  </si>
+  <si>
+    <t>Petroleum and Coal Products</t>
+  </si>
+  <si>
+    <t>Chemicals, Rubber, and Plastics</t>
+  </si>
+  <si>
+    <t>Non-Metallic Mineral Products</t>
+  </si>
+  <si>
+    <t>Ferrous Metals</t>
+  </si>
+  <si>
+    <t>Nonferrous primary metals</t>
+  </si>
+  <si>
+    <t>Fabricated Metal Products</t>
+  </si>
+  <si>
+    <t>Transportation Equipment</t>
+  </si>
+  <si>
+    <t>Electronic equipment</t>
+  </si>
+  <si>
+    <t>Other Manufacturing</t>
+  </si>
+  <si>
+    <t>Oil mining</t>
+  </si>
+  <si>
+    <t>Gas mining</t>
+  </si>
+  <si>
+    <t>Other Minerals</t>
+  </si>
+  <si>
+    <t>Electric Utilities</t>
+  </si>
+  <si>
+    <t>Gas manuf. and distribution</t>
+  </si>
+  <si>
+    <t>Transportation Services</t>
+  </si>
+  <si>
+    <t>Finance and Insurance</t>
+  </si>
+  <si>
+    <t>Services (inc real estate)</t>
+  </si>
+  <si>
+    <t>Change in U.S. Emissions</t>
+  </si>
+  <si>
+    <t>Due to higher exports to US</t>
+  </si>
+  <si>
+    <t>Due to lower imports from US</t>
+  </si>
+  <si>
+    <t>Due to differences in Carbon Intensity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Change in non-Annex I emissions due to change in net exports to U.S. (1000 tons CO2)</t>
+  </si>
+  <si>
+    <t>Leakage Rate</t>
+  </si>
+  <si>
+    <t>The numbers in this table are based on a $15/ton CO2 tax in Annex I Countries.</t>
+  </si>
+  <si>
+    <t>cement and other carbonate use</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum systems</t>
+  </si>
+  <si>
+    <t>iron and steel</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>waste management</t>
+  </si>
+  <si>
+    <t>other industries</t>
+  </si>
+  <si>
+    <t>http://www.worldcement.com/news/cement/articles/Cement_global_trading_patterns_961.aspx#.UyvL5fldWE8</t>
+  </si>
+  <si>
+    <t>Included in Other Industries</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
   <si>
     <t>FLRbI Foreign Leakage Rate by Industry</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Resources for the Future</t>
-  </si>
-  <si>
-    <t>The Impact on US Industries of Carbon Prices with Output-based Rebates over Multiple Time Frames</t>
-  </si>
-  <si>
-    <t>http://www.rff.org/RFF/Documents/RFF-DP-10-47.pdf</t>
-  </si>
-  <si>
-    <t>Page 83, Table 15</t>
+    <t>Industry</t>
   </si>
   <si>
     <t>Notes:</t>
@@ -60,267 +197,150 @@
     <t>as China exports), according to World Cement Magazine:</t>
   </si>
   <si>
-    <t>http://www.worldcement.com/news/cement/articles/Cement_global_trading_patterns_961.aspx#.UyvL5fldWE8</t>
-  </si>
-  <si>
     <t>We assume zero leakage for waste management, which is primarily water treatment and cannot be offshored.</t>
   </si>
   <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>This is always negative.  This is the reduction in U.S. emissions from a sector in response to</t>
+  </si>
+  <si>
+    <t>a $15/ton carbon price.  For our purposes, we are only looking at rebound magnitudes in</t>
+  </si>
+  <si>
+    <t>foreign countries per unit abatement in the U.S., so the specific amount of abatement in</t>
+  </si>
+  <si>
+    <t>the U.S. (or the $15/ton carbon tax that caused it) are not directly relevant.</t>
+  </si>
+  <si>
+    <t>(However, it does mean we are taking a point estimate, as we do for elasticities, when</t>
+  </si>
+  <si>
+    <t>leakage really would be described by a nonlinear function.)</t>
+  </si>
+  <si>
+    <t>Due to higher exports to U.S.</t>
+  </si>
+  <si>
+    <t>In manufacturing industries, when the U.S. produces less emissions, it uses less fuel.</t>
+  </si>
+  <si>
+    <t>The reduction in demand for fuel by the U.S. causes global fuel prices to go down.</t>
+  </si>
+  <si>
+    <t>Other countries use more fuel as a result.  This increases the "carbon intensity" of</t>
+  </si>
+  <si>
+    <t>their economies.  This is the effect being captured in this column.</t>
+  </si>
+  <si>
+    <t>because the reduced supply (from the drop in U.S. production) drives up prices.</t>
+  </si>
+  <si>
+    <t>This reduction in supply is a more important effect than the reduction in U.S.</t>
+  </si>
+  <si>
+    <t>usage of fossil fuels in the extraction industries, to power their operations,</t>
+  </si>
+  <si>
+    <t>which (as with the manufacturing industries) has a tendency to reduce global</t>
+  </si>
+  <si>
+    <t>fuel prices.  So on balance, reducing U.S. production of fossil fuels reduces the</t>
+  </si>
+  <si>
+    <t>carbon intensity of foreign economies.</t>
+  </si>
+  <si>
+    <t>of these goods, the global price of these fuels goes up rather than down,</t>
+  </si>
+  <si>
+    <t>Note that the values in this column are negative for some fossil fuel extraction industries</t>
+  </si>
+  <si>
+    <t>(coal and gas mining).  This is because when the U.S. reduces production</t>
+  </si>
+  <si>
+    <t>This reflects increased production of goods overseas, for export to the U.S. (to make up</t>
+  </si>
+  <si>
+    <t>for part of the reduction in goods produced within the U.S.)</t>
+  </si>
+  <si>
+    <t>In the case of fuels (wood, coal, oil, and gas) and certain types of equipment</t>
+  </si>
+  <si>
+    <t>(transportation equipment, electronic equipment, machinery), this value is negative.</t>
+  </si>
+  <si>
+    <t>Fuels would be subject to a carbon tax whether produced domestically or imported, so</t>
+  </si>
+  <si>
+    <t>importing these fuels does not avoid the carbon tax, hence no additional imports are</t>
+  </si>
+  <si>
+    <t>stimulated.  Equipment that generates emissions when used may also have reduced</t>
+  </si>
+  <si>
+    <t>demand for imports to the U.S.</t>
+  </si>
+  <si>
+    <t>Due to lower imports from U.S.</t>
+  </si>
+  <si>
+    <t>Some goods that previously were exported from the U.S. to other countries are diverted</t>
+  </si>
+  <si>
+    <t>to be used domestically within the U.S.  This results in positive values in this column.</t>
+  </si>
+  <si>
+    <t>Negative values indicate in increase in exports from the U.S. to other countries, which</t>
+  </si>
+  <si>
+    <t>happens for the fossil fuels (coal, oil, and gas), because exporting them avoids the carbon</t>
+  </si>
+  <si>
+    <t>tax, and machinery, whose use consumes energy and generates emissions.</t>
+  </si>
+  <si>
     <t>How to Interpret Leakage Components from the RFF Table</t>
   </si>
   <si>
-    <t>Change in U.S. Emissions</t>
-  </si>
-  <si>
-    <t>This is always negative.  This is the reduction in U.S. emissions from a sector in response to</t>
-  </si>
-  <si>
-    <t>a $15/ton carbon price.  For our purposes, we are only looking at rebound magnitudes in</t>
-  </si>
-  <si>
-    <t>foreign countries per unit abatement in the U.S., so the specific amount of abatement in</t>
-  </si>
-  <si>
-    <t>the U.S. (or the $15/ton carbon tax that caused it) are not directly relevant.</t>
-  </si>
-  <si>
-    <t>(However, it does mean we are taking a point estimate, as we do for elasticities, when</t>
-  </si>
-  <si>
-    <t>leakage really would be described by a nonlinear function.)</t>
-  </si>
-  <si>
-    <t>Due to higher exports to U.S.</t>
-  </si>
-  <si>
-    <t>This reflects increased production of goods overseas, for export to the U.S. (to make up</t>
-  </si>
-  <si>
-    <t>for part of the reduction in goods produced within the U.S.)</t>
-  </si>
-  <si>
-    <t>In the case of fuels (wood, coal, oil, and gas) and certain types of equipment</t>
-  </si>
-  <si>
-    <t>(transportation equipment, electronic equipment, machinery), this value is negative.</t>
-  </si>
-  <si>
-    <t>Fuels would be subject to a carbon tax whether produced domestically or imported, so</t>
-  </si>
-  <si>
-    <t>importing these fuels does not avoid the carbon tax, hence no additional imports are</t>
-  </si>
-  <si>
-    <t>stimulated.  Equipment that generates emissions when used may also have reduced</t>
-  </si>
-  <si>
-    <t>demand for imports to the U.S.</t>
-  </si>
-  <si>
-    <t>Due to lower imports from U.S.</t>
-  </si>
-  <si>
-    <t>Some goods that previously were exported from the U.S. to other countries are diverted</t>
-  </si>
-  <si>
-    <t>to be used domestically within the U.S.  This results in positive values in this column.</t>
-  </si>
-  <si>
-    <t>Negative values indicate in increase in exports from the U.S. to other countries, which</t>
-  </si>
-  <si>
-    <t>happens for the fossil fuels (coal, oil, and gas), because exporting them avoids the carbon</t>
-  </si>
-  <si>
-    <t>tax, and machinery, whose use consumes energy and generates emissions.</t>
-  </si>
-  <si>
-    <t>Due to differences in Carbon Intensity</t>
-  </si>
-  <si>
-    <t>In manufacturing industries, when the U.S. produces less emissions, it uses less fuel.</t>
-  </si>
-  <si>
-    <t>The reduction in demand for fuel by the U.S. causes global fuel prices to go down.</t>
-  </si>
-  <si>
-    <t>Other countries use more fuel as a result.  This increases the "carbon intensity" of</t>
-  </si>
-  <si>
-    <t>their economies.  This is the effect being captured in this column.</t>
-  </si>
-  <si>
-    <t>Note that the values in this column are negative for some fossil fuel extraction industries</t>
-  </si>
-  <si>
-    <t>(coal and gas mining).  This is because when the U.S. reduces production</t>
-  </si>
-  <si>
-    <t>of these goods, the global price of these fuels goes up rather than down,</t>
-  </si>
-  <si>
-    <t>because the reduced supply (from the drop in U.S. production) drives up prices.</t>
-  </si>
-  <si>
-    <t>This reduction in supply is a more important effect than the reduction in U.S.</t>
-  </si>
-  <si>
-    <t>usage of fossil fuels in the extraction industries, to power their operations,</t>
-  </si>
-  <si>
-    <t>which (as with the manufacturing industries) has a tendency to reduce global</t>
-  </si>
-  <si>
-    <t>fuel prices.  So on balance, reducing U.S. production of fossil fuels reduces the</t>
-  </si>
-  <si>
-    <t>carbon intensity of foreign economies.</t>
-  </si>
-  <si>
-    <t>Change in non-Annex I emissions due to change in net exports to U.S. (1000 tons CO2)</t>
-  </si>
-  <si>
-    <t>Due to higher exports to US</t>
-  </si>
-  <si>
-    <t>Due to lower imports from US</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Leakage Rate</t>
-  </si>
-  <si>
-    <t>Included in Other Industries</t>
-  </si>
-  <si>
-    <t>Food, Beverages, and Tobacco</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Textiles</t>
-  </si>
-  <si>
-    <t>Wearing Apparel and Leather</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Paper and Publishing</t>
-  </si>
-  <si>
-    <t>Petroleum and Coal Products</t>
-  </si>
-  <si>
-    <t>Chemicals, Rubber, and Plastics</t>
-  </si>
-  <si>
-    <t>Non-Metallic Mineral Products</t>
-  </si>
-  <si>
-    <t>Ferrous Metals</t>
-  </si>
-  <si>
-    <t>Nonferrous primary metals</t>
-  </si>
-  <si>
-    <t>Fabricated Metal Products</t>
-  </si>
-  <si>
-    <t>Transportation Equipment</t>
-  </si>
-  <si>
-    <t>Electronic equipment</t>
-  </si>
-  <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>Other Manufacturing</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Oil mining</t>
-  </si>
-  <si>
-    <t>Gas mining</t>
-  </si>
-  <si>
-    <t>Other Minerals</t>
-  </si>
-  <si>
-    <t>Electric Utilities</t>
-  </si>
-  <si>
-    <t>Gas manuf. and distribution</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Trade</t>
-  </si>
-  <si>
-    <t>Transportation Services</t>
-  </si>
-  <si>
-    <t>Communications</t>
-  </si>
-  <si>
-    <t>Finance and Insurance</t>
-  </si>
-  <si>
-    <t>Services (inc real estate)</t>
-  </si>
-  <si>
-    <t>The numbers in this table are based on a $15/ton CO2 tax in Annex I Countries.</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>cement and other carbonate use</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>mining</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>other industries</t>
+    <t>For every unit of CO2e not emitted in this country as a result of the modeled policy package, a fraction</t>
+  </si>
+  <si>
+    <t>of a unit of CO2e is emitted in a foreign country. This may be due to businesses relocating or opening</t>
+  </si>
+  <si>
+    <t>elsewhere rather than in this country, or it may be due to changes in production levels of existing</t>
+  </si>
+  <si>
+    <t>businesses. These leakage rates were determined via a computer model based on a carbon tax, so</t>
+  </si>
+  <si>
+    <t>leakage can be negative if a foreign firm has a lower carbon intensity than a U.S. firm when</t>
+  </si>
+  <si>
+    <t>producing a particular good (this is the case for natural gas and coal), or if imports to the U.S. are</t>
+  </si>
+  <si>
+    <t>reduced (this is the case for oil).</t>
+  </si>
+  <si>
+    <t>Leakage Rate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,7 +412,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -418,6 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -513,23 +534,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -565,23 +569,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -757,279 +744,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" location=".UyvL5fldWE8" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId2" location=".UyvL5fldWE8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1037,54 +1064,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.265625" customWidth="1"/>
+    <col min="2" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>56</v>
       </c>
       <c r="B3" s="4">
         <v>-7457</v>
@@ -1105,12 +1132,12 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-623</v>
@@ -1131,12 +1158,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>-317</v>
@@ -1157,12 +1184,12 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>-889</v>
@@ -1183,12 +1210,12 @@
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>-7933</v>
@@ -1209,12 +1236,12 @@
         <v>0.01</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>-18447</v>
@@ -1236,9 +1263,9 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>-14947</v>
@@ -1260,9 +1287,9 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4">
         <v>-10110</v>
@@ -1284,9 +1311,9 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
         <v>-4616</v>
@@ -1308,9 +1335,9 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>-1821</v>
@@ -1331,12 +1358,12 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
         <v>-1010</v>
@@ -1357,12 +1384,12 @@
         <v>1.2E-2</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>-1434</v>
@@ -1383,12 +1410,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>-572</v>
@@ -1409,12 +1436,12 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4">
         <v>-1496</v>
@@ -1435,12 +1462,12 @@
         <v>2E-3</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>-183</v>
@@ -1461,12 +1488,12 @@
         <v>1.702</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4">
         <v>-3229</v>
@@ -1488,9 +1515,9 @@
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>-510</v>
@@ -1512,9 +1539,9 @@
         <v>-0.20980392156862746</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4">
         <v>-2088</v>
@@ -1536,9 +1563,9 @@
         <v>-0.62931034482758619</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>-428</v>
@@ -1560,9 +1587,9 @@
         <v>-1.9602803738317758</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>-11</v>
@@ -1584,9 +1611,9 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4">
         <v>-411572</v>
@@ -1608,9 +1635,9 @@
         <v>3.0687218761237403E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
         <v>-6542</v>
@@ -1632,9 +1659,9 @@
         <v>1.5285845307245491E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>-881</v>
@@ -1656,9 +1683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4">
         <v>-5443</v>
@@ -1680,9 +1707,9 @@
         <v>-7.3488884806173071E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4">
         <v>-67547</v>
@@ -1704,9 +1731,9 @@
         <v>6.0357972966971145E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>-116</v>
@@ -1728,9 +1755,9 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>-827</v>
@@ -1752,9 +1779,9 @@
         <v>-3.6275695284159614E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4">
         <v>-14895</v>
@@ -1776,9 +1803,9 @@
         <v>1.2755958375293723E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1790,93 +1817,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9">
         <f>SourceData!G10</f>
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B3" s="10">
         <f>-SUM(SourceData!F8,SourceData!F20,SourceData!F21,SourceData!F24)/SUM(SourceData!B8,SourceData!B20,SourceData!B21,SourceData!B24)</f>
         <v>-2.2577713143064896E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B4" s="10">
         <f>SourceData!G11</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9">
         <f>SourceData!G9</f>
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B6" s="10">
         <f>-SUM(SourceData!F19,SourceData!F22)/SUM(SourceData!B19,SourceData!B22)</f>
         <v>-0.18809980806142035</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B8" s="10">
         <f>SourceData!G18</f>
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B9" s="10">
         <f>-SUM(SourceData!F3:F7,SourceData!F12:F17)/SUM(SourceData!B3:B7,SourceData!B12:B17)</f>
@@ -1889,24 +1918,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2140,14 +2151,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A69CF451-13CF-4DE8-9183-CD5E53A19990}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5180D4D0-453A-4FAB-8703-B1CA22A4A4D5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E976B4FF-F739-4258-BA83-EE72FF008D59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9AC61C-F9EE-4CB5-A276-A34635FC4C6D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E46774-6054-416B-8446-8CB000EDAFC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96C94B2-52F7-4686-8B14-031C3D6E3A2E}"/>
 </file>